--- a/doc/ue_montage.xlsx
+++ b/doc/ue_montage.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B791A5B-FA0F-4C4F-A309-A4F8375419A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="播放" sheetId="2" r:id="rId2"/>
+    <sheet name="UAnimMontage" sheetId="4" r:id="rId3"/>
+    <sheet name="FAnimMontageInstance" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +27,492 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+  <si>
+    <t>float ACharacter::PlayAnimMontage(class UAnimMontage* AnimMontage, float InPlayRate, FName StartSectionName)</t>
+  </si>
+  <si>
+    <t>播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UAnimInstance * AnimInstance = (Mesh)? Mesh-&gt;GetAnimInstance() : nullptr; </t>
+  </si>
+  <si>
+    <t>使用Mesh组件里面的动画蓝图类播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float const Duration = AnimInstance-&gt;Montage_Play(AnimMontage, InPlayRate);</t>
+  </si>
+  <si>
+    <t>支持跳转到制定的Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimInstance-&gt;Montage_JumpToSection(StartSectionName, AnimMontage);</t>
+  </si>
+  <si>
+    <t>float UAnimInstance::Montage_Play(UAnimMontage* MontageToPlay, float InPlayRate/*= 1.f*/, EMontagePlayReturnType ReturnValueType, float InTimeToStartMontageAt, bool bStopAllMontages /*= true*/)</t>
+  </si>
+  <si>
+    <t>创建一个FAnimMontageInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAnimMontageInstance* NewInstance = new FAnimMontageInstance(this);</t>
+  </si>
+  <si>
+    <t>NewInstance-&gt;Initialize(MontageToPlay);</t>
+  </si>
+  <si>
+    <t>NewInstance-&gt;Play(InPlayRate);</t>
+  </si>
+  <si>
+    <t>NewInstance-&gt;SetPosition(FMath::Clamp(InTimeToStartMontageAt, 0.f, MontageLength));</t>
+  </si>
+  <si>
+    <t>MontageInstances.Add(NewInstance);</t>
+  </si>
+  <si>
+    <t>ActiveMontagesMap.Add(MontageToPlay, NewInstance);</t>
+  </si>
+  <si>
+    <t>UCLASS(config=Engine, hidecategories=(UObject, Length), MinimalAPI, BlueprintType)</t>
+  </si>
+  <si>
+    <t>class UAnimMontage : public UAnimCompositeBase</t>
+  </si>
+  <si>
+    <t>USTRUCT()</t>
+  </si>
+  <si>
+    <t>struct ENGINE_API FAnimMontageInstance</t>
+  </si>
+  <si>
+    <t>蒙太奇动画的一个实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Montage reference</t>
+  </si>
+  <si>
+    <t>UPROPERTY()</t>
+  </si>
+  <si>
+    <t>class UAnimMontage* Montage;</t>
+  </si>
+  <si>
+    <t>bool bPlaying;</t>
+  </si>
+  <si>
+    <t>// reference to AnimInstance</t>
+  </si>
+  <si>
+    <t>TWeakObjectPtr&lt;UAnimInstance&gt; AnimInstance;</t>
+  </si>
+  <si>
+    <t>蒙太奇播放，都是在对应的蓝图动画里面存一个实例（里面有一个列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float Position;</t>
+  </si>
+  <si>
+    <t>当前的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float PlayRate;</t>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>FAlphaBlend Blend;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动画蒙太奇（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Animation Montage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（简称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒙太奇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）提供了一种直接通过蓝图或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>C++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码控制动画资源的途径。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你可以使用动画蒙太奇将多个不同动画序列组合成一个资源。你可以将该资源分成若干</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>片段（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sections</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），选择播放其中的个别片段，或者选择播放所有片段。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你可以触发蒙太奇中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Events</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以执行各种本地或复制任务，例如播放</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sound Cue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或粒子效果，更改玩家数值（如弹药数量）等，甚至在动画启用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根运动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时复制联网游戏中的根运动。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙太奇动画的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(abstract, MinimalAPI)</t>
+  </si>
+  <si>
+    <t>class UAnimCompositeBase : public UAnimSequenceBase</t>
+  </si>
+  <si>
+    <t>UCLASS(abstract, BlueprintType)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UAnimSequenceBase : public UAnimationAsset</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +535,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +819,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8AB1AF-2AA0-43BD-ADD8-4FEB13A9453F}">
+  <dimension ref="B4:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45D0957-4982-4A9D-A8A4-CBA3FF7B2407}">
+  <dimension ref="B2:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814D4F4-9582-4C88-A9E0-0AA4E1374079}">
+  <dimension ref="B2:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_montage.xlsx
+++ b/doc/ue_montage.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B791A5B-FA0F-4C4F-A309-A4F8375419A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="播放" sheetId="2" r:id="rId2"/>
     <sheet name="UAnimMontage" sheetId="4" r:id="rId3"/>
     <sheet name="FAnimMontageInstance" sheetId="3" r:id="rId4"/>
+    <sheet name="Notify" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>float ACharacter::PlayAnimMontage(class UAnimMontage* AnimMontage, float InPlayRate, FName StartSectionName)</t>
   </si>
@@ -441,12 +441,120 @@
   </si>
   <si>
     <t>class ENGINE_API UAnimSequenceBase : public UAnimationAsset</t>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(abstract, Blueprintable, const, hidecategories=Object, collapsecategories)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UAnimNotify : public UObject</t>
+  </si>
+  <si>
+    <t>动画事件机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(const, hidecategories=Object, collapsecategories, Config = Game, meta=(DisplayName="Play Sound"))</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UAnimNotify_PlaySound : public UAnimNotify</t>
+  </si>
+  <si>
+    <t>// Sound to Play</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, BlueprintReadWrite, Category="AnimNotify", meta=(ExposeOnSpawn = true))</t>
+  </si>
+  <si>
+    <t>USoundBase* Sound;</t>
+  </si>
+  <si>
+    <t>// Volume Multiplier</t>
+  </si>
+  <si>
+    <t>float VolumeMultiplier;</t>
+  </si>
+  <si>
+    <t>// Pitch Multiplier</t>
+  </si>
+  <si>
+    <t>float PitchMultiplier;</t>
+  </si>
+  <si>
+    <t>// If this sound should follow its owner</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, BlueprintReadWrite, Category = "AnimNotify")</t>
+  </si>
+  <si>
+    <t>uint32 bFollow:1;</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Socket or bone name to attach sound to</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, BlueprintReadWrite, Category="AnimNotify", meta=(EditCondition="bFollow", ExposeOnSpawn = true))</t>
+  </si>
+  <si>
+    <t>FName AttachName;</t>
+  </si>
+  <si>
+    <t>回调处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void Notify(USkeletalMeshComponent* MeshComp, UAnimSequenceBase* Animation) override;</t>
+  </si>
+  <si>
+    <t>播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bFollow)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>UGameplayStatics::SpawnSoundAttached(Sound, MeshComp, AttachName, FVector(ForceInit), EAttachLocation::SnapToTarget, false, VolumeMultiplier, PitchMultiplier);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>UGameplayStatics::PlaySoundAtLocation(MeshComp-&gt;GetWorld(), Sound, MeshComp-&gt;GetComponentLocation(), VolumeMultiplier, PitchMultiplier);</t>
+  </si>
+  <si>
+    <t>如果要实现自己的Notify，就需要继承UAnimNotify之后，自己实现Notify接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要在该接口里面回调到脚本里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是unlua，自己创建一个单独蓝图，父类为UAnimNotify，增加Interface，设置Lua类即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -851,11 +959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8AB1AF-2AA0-43BD-ADD8-4FEB13A9453F}">
-  <dimension ref="B4:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,14 +1036,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -945,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45D0957-4982-4A9D-A8A4-CBA3FF7B2407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814D4F4-9582-4C88-A9E0-0AA4E1374079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1104,4 +1222,221 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>